--- a/EDA/eda_q.xlsx
+++ b/EDA/eda_q.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitRepo\CB speeches\EDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE1D79E-CF67-475E-918A-5E01934B8BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4964E631-25F9-4D6A-A562-A07F2D647B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="1" r:id="rId1"/>
@@ -974,11 +974,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView topLeftCell="B41" workbookViewId="0">
+      <selection activeCell="O55" sqref="O55:O58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
     <col min="13" max="13" width="9.140625" style="15"/>
@@ -3098,7 +3098,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>51</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>52</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>53</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>54</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>55</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>56</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>57</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>58</v>
       </c>
@@ -3413,6 +3413,9 @@
       <c r="C56">
         <v>1.4999999999999999E-2</v>
       </c>
+      <c r="E56">
+        <v>2.9</v>
+      </c>
       <c r="F56">
         <v>3.1</v>
       </c>
@@ -3425,9 +3428,8 @@
       <c r="M56" s="17">
         <v>5.5</v>
       </c>
-      <c r="O56">
-        <f t="shared" ref="O56" si="0">LOG(L56)*10</f>
-        <v>8.6074714091401194</v>
+      <c r="N56" s="17">
+        <v>5.8</v>
       </c>
     </row>
   </sheetData>
@@ -3440,11 +3442,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
@@ -5881,6 +5883,9 @@
       <c r="D56">
         <v>1.4999999999999999E-2</v>
       </c>
+      <c r="E56">
+        <v>0.2</v>
+      </c>
       <c r="G56">
         <v>3.1</v>
       </c>
@@ -5903,11 +5908,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="14" max="14" width="9.140625" style="15"/>
@@ -8340,8 +8345,14 @@
       <c r="B56" s="6" t="s">
         <v>129</v>
       </c>
+      <c r="C56">
+        <v>8.1110000000000002E-2</v>
+      </c>
       <c r="D56">
         <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E56">
+        <v>5.4</v>
       </c>
       <c r="G56">
         <v>5.3000000000000007</v>
@@ -8368,11 +8379,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="14" max="14" width="9.140625" style="15"/>
@@ -10762,7 +10773,7 @@
         <v>128</v>
       </c>
       <c r="C55">
-        <v>-0.47949999999999998</v>
+        <v>-0.47349999999999998</v>
       </c>
       <c r="D55">
         <v>-0.17652566666666669</v>
@@ -10805,8 +10816,14 @@
       <c r="B56" s="6" t="s">
         <v>129</v>
       </c>
+      <c r="C56">
+        <v>-0.47949999999999998</v>
+      </c>
       <c r="D56">
         <v>-0.41640700000000003</v>
+      </c>
+      <c r="E56">
+        <v>3.4</v>
       </c>
       <c r="G56">
         <v>7.55</v>
@@ -10838,7 +10855,7 @@
       <selection activeCell="B1" sqref="B1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -19821,7 +19838,7 @@
       <selection activeCell="A6" sqref="A6:A60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="5" width="10" customWidth="1"/>
     <col min="6" max="9" width="10" style="15" customWidth="1"/>

--- a/EDA/eda_q.xlsx
+++ b/EDA/eda_q.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitRepo\CB speeches\EDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4964E631-25F9-4D6A-A562-A07F2D647B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD3721E-5325-4876-8180-DE912B089D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,9 @@
     <sheet name="JPN" sheetId="2" r:id="rId2"/>
     <sheet name="US" sheetId="3" r:id="rId3"/>
     <sheet name="EU" sheetId="4" r:id="rId4"/>
-    <sheet name="cross" sheetId="5" r:id="rId5"/>
-    <sheet name="GDP" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId5"/>
+    <sheet name="cross" sheetId="5" r:id="rId6"/>
+    <sheet name="GDP" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="144">
   <si>
     <t>date</t>
   </si>
@@ -451,6 +452,24 @@
   <si>
     <t>da</t>
   </si>
+  <si>
+    <t>12-30-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Q4-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Q1-2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Q2-2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Q3-2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Q4-2022</t>
+  </si>
 </sst>
 </file>
 
@@ -545,7 +564,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -631,11 +650,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -691,6 +721,13 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -972,15 +1009,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S56"/>
+  <dimension ref="A1:S62"/>
   <sheetViews>
-    <sheetView topLeftCell="B41" workbookViewId="0">
-      <selection activeCell="O55" sqref="O55:O58"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
     <col min="13" max="13" width="9.140625" style="15"/>
     <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -3373,7 +3414,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
       <c r="D55">
-        <v>0.37430000000000002</v>
+        <v>0.82899999999999996</v>
       </c>
       <c r="E55">
         <v>2.0333333333333332</v>
@@ -3413,11 +3454,14 @@
       <c r="C56">
         <v>1.4999999999999999E-2</v>
       </c>
+      <c r="D56">
+        <v>0.623</v>
+      </c>
       <c r="E56">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="F56">
-        <v>3.1</v>
+        <v>7.25</v>
       </c>
       <c r="K56">
         <v>7.5000000000000011E-2</v>
@@ -3432,7 +3476,69 @@
         <v>5.8</v>
       </c>
     </row>
+    <row r="57" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C57">
+        <v>0.2</v>
+      </c>
+      <c r="D57">
+        <v>0.81230000000000002</v>
+      </c>
+      <c r="E57">
+        <v>5.4</v>
+      </c>
+      <c r="F57">
+        <v>5.2</v>
+      </c>
+      <c r="M57" s="15">
+        <v>6.5</v>
+      </c>
+      <c r="N57" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E58">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E59">
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E60">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B61" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E61">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B62" s="6"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -3440,10 +3546,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5880,12 +5989,18 @@
       <c r="B56" s="6" t="s">
         <v>129</v>
       </c>
+      <c r="C56">
+        <v>-0.1</v>
+      </c>
       <c r="D56">
-        <v>1.4999999999999999E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="E56">
         <v>0.2</v>
       </c>
+      <c r="F56">
+        <v>0.1</v>
+      </c>
       <c r="G56">
         <v>3.1</v>
       </c>
@@ -5897,6 +6012,64 @@
       </c>
       <c r="N56" s="15">
         <v>-1.5422201765829211</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C57">
+        <v>-0.1</v>
+      </c>
+      <c r="D57">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="E57">
+        <v>0.8</v>
+      </c>
+      <c r="F57">
+        <v>0.5</v>
+      </c>
+      <c r="M57" s="23">
+        <v>1.7</v>
+      </c>
+      <c r="N57" s="15">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E58">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E59">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E60">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B61" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E61">
+        <v>0.72</v>
       </c>
     </row>
   </sheetData>
@@ -5906,10 +6079,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8305,13 +8481,13 @@
         <v>7.6666666666666675E-2</v>
       </c>
       <c r="D55">
-        <v>0.8833333333333333</v>
+        <v>1.5880000000000001</v>
       </c>
       <c r="E55">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="F55">
-        <v>25.666666666666671</v>
+        <v>24</v>
       </c>
       <c r="G55">
         <v>5.9333333333333336</v>
@@ -8349,10 +8525,13 @@
         <v>8.1110000000000002E-2</v>
       </c>
       <c r="D56">
-        <v>1.4999999999999999E-2</v>
+        <v>1.28</v>
       </c>
       <c r="E56">
-        <v>5.4</v>
+        <v>4</v>
+      </c>
+      <c r="F56">
+        <v>24</v>
       </c>
       <c r="G56">
         <v>5.3000000000000007</v>
@@ -8368,6 +8547,64 @@
       </c>
       <c r="N56" s="15">
         <v>1.9132329327503639</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C57">
+        <v>0.15</v>
+      </c>
+      <c r="D57">
+        <v>1.357</v>
+      </c>
+      <c r="E57">
+        <v>5.5</v>
+      </c>
+      <c r="F57">
+        <v>29</v>
+      </c>
+      <c r="M57" s="23">
+        <v>5.7</v>
+      </c>
+      <c r="N57" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E58">
+        <v>6.56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E59">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E60">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B61" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E61">
+        <v>3.15</v>
       </c>
     </row>
   </sheetData>
@@ -8377,10 +8614,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10380,7 +10620,7 @@
         <v>-0.36543333333333328</v>
       </c>
       <c r="D46">
-        <v>0.13410366666666659</v>
+        <v>0.99080000000000001</v>
       </c>
       <c r="E46">
         <v>1.5666666666666671</v>
@@ -10424,7 +10664,7 @@
         <v>-0.36370000000000002</v>
       </c>
       <c r="D47">
-        <v>-0.1048133333333333</v>
+        <v>0.57410000000000005</v>
       </c>
       <c r="E47">
         <v>1.7</v>
@@ -10468,7 +10708,7 @@
         <v>-0.38933333333333342</v>
       </c>
       <c r="D48">
-        <v>-0.52138666666666666</v>
+        <v>4.7800000000000002E-2</v>
       </c>
       <c r="E48">
         <v>1.333333333333333</v>
@@ -10512,7 +10752,7 @@
         <v>-0.43853333333333328</v>
       </c>
       <c r="D49">
-        <v>-0.26782566666666668</v>
+        <v>0.36620000000000003</v>
       </c>
       <c r="E49">
         <v>1.333333333333333</v>
@@ -10556,7 +10796,7 @@
         <v>-0.45126666666666659</v>
       </c>
       <c r="D50">
-        <v>-0.46146399999999999</v>
+        <v>0.36820000000000003</v>
       </c>
       <c r="E50">
         <v>1.5</v>
@@ -10600,7 +10840,7 @@
         <v>-0.45673333333333338</v>
       </c>
       <c r="D51">
-        <v>-0.42269666666666672</v>
+        <v>0.3508</v>
       </c>
       <c r="E51">
         <v>0.70000000000000007</v>
@@ -10644,7 +10884,7 @@
         <v>-0.46623333333333328</v>
       </c>
       <c r="D52">
-        <v>-0.45319599999999999</v>
+        <v>0.123</v>
       </c>
       <c r="E52">
         <v>0.53333333333333333</v>
@@ -10688,7 +10928,7 @@
         <v>-0.47133333333333333</v>
       </c>
       <c r="D53">
-        <v>-0.57439266666666666</v>
+        <v>-9.1499999999999998E-2</v>
       </c>
       <c r="E53">
         <v>0.26666666666666672</v>
@@ -10732,7 +10972,7 @@
         <v>-0.47703333333333342</v>
       </c>
       <c r="D54">
-        <v>-0.34554800000000002</v>
+        <v>0.14779999999999999</v>
       </c>
       <c r="E54">
         <v>1.4</v>
@@ -10776,10 +11016,10 @@
         <v>-0.47349999999999998</v>
       </c>
       <c r="D55">
-        <v>-0.17652566666666669</v>
+        <v>0.30380000000000001</v>
       </c>
       <c r="E55">
-        <v>2.166666666666667</v>
+        <v>1.9</v>
       </c>
       <c r="F55">
         <v>17.275020000000001</v>
@@ -10820,7 +11060,7 @@
         <v>-0.47949999999999998</v>
       </c>
       <c r="D56">
-        <v>-0.41640700000000003</v>
+        <v>0.19670000000000001</v>
       </c>
       <c r="E56">
         <v>3.4</v>
@@ -10839,6 +11079,61 @@
       </c>
       <c r="N56" s="15">
         <v>1.4263698930003565</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C57">
+        <v>-0.6</v>
+      </c>
+      <c r="D57">
+        <v>0.27910000000000001</v>
+      </c>
+      <c r="E57">
+        <v>5</v>
+      </c>
+      <c r="M57" s="24">
+        <v>5.3</v>
+      </c>
+      <c r="N57" s="15">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E58">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E59">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E60">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B61" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E61">
+        <v>1.82</v>
       </c>
     </row>
   </sheetData>
@@ -10848,6 +11143,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134A62CB-221A-4C87-BB89-DB7F63A9C24C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M221"/>
   <sheetViews>
@@ -19830,7 +20137,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04580406-0DCD-430B-991B-BDE6F7519D33}">
   <dimension ref="A1:L60"/>
   <sheetViews>
